--- a/extensions/ida2016/doc-Experiments/ExperimentsResultsIndicators.xlsx
+++ b/extensions/ida2016/doc-Experiments/ExperimentsResultsIndicators.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26929"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-25600" yWindow="4000" windowWidth="25600" windowHeight="15540" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="22340" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="indicatorsData" sheetId="3" r:id="rId1"/>
-    <sheet name="indicatorsGraph" sheetId="7" r:id="rId2"/>
+    <sheet name="indicatorsGraph" sheetId="7" r:id="rId1"/>
+    <sheet name="indicatorsData" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="4">
   <si>
     <t>original</t>
   </si>
@@ -28,7 +28,10 @@
     <t>indicators+ur</t>
   </si>
   <si>
-    <t>indicatorsVarianceOfIndicSmall</t>
+    <t>ur</t>
+  </si>
+  <si>
+    <t>indicators</t>
   </si>
 </sst>
 </file>
@@ -77,8 +80,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="17">
+  <cellStyleXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -100,7 +107,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="17">
+  <cellStyles count="21">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -109,6 +116,8 @@
     <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -117,6 +126,8 @@
     <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -153,7 +164,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>indicatorsVarianceOfIndicSmall</c:v>
+                  <c:v>indicators</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -163,198 +174,12 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>indicatorsData!$C$2:$C$64</c:f>
+              <c:f>indicatorsData!#REF!</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="63"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>3150.20155380157</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3064.58863352545</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4171.91194366615</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6171.92488658247</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>9664.28901926702</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>14806.1012782179</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>20467.4017511017</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>26179.7327767929</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>29590.4724066206</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>32564.9184302541</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>34032.4549304582</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>34861.990490833</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>36438.2258505445</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>35901.4712311687</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>36503.9375425277</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>36133.6322672408</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>35792.9290414011</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>36143.993891791</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>36229.5315597145</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>37471.3647972212</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>37587.8068616176</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>38152.7794066949</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>39942.1934325473</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>39782.5246005207</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>40902.6009681056</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>40066.6318467771</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>39641.8249045673</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>40096.8675356849</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>39838.1126326122</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>41726.7909512475</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>41362.6994156209</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>42393.3449526891</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>43419.8065653539</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>43968.7107800601</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>44497.7503852925</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>42947.4756750667</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>42747.7143930693</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>43418.9367176244</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>43175.9547226304</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>43659.4528686293</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>44291.1739515448</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>45511.1762451163</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>45080.9734539488</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>46136.8205829405</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>45393.9592496738</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>45782.5191211837</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>46144.6507099086</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>46431.1717245634</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>47240.1460191647</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>48893.0964382705</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>47588.8221989304</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>47440.9277712989</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>46566.0296137959</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>47035.4252672242</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>46638.9786979656</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>47605.0082996314</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>48561.64785238</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>49765.4588301086</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>48832.9083241496</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>49215.2106123361</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>47768.236846884</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>49125.3529678363</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>47368.6161740097</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -385,193 +210,193 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="63"/>
                 <c:pt idx="0">
-                  <c:v>3150.13015057088</c:v>
+                  <c:v>4299.65938045024</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3059.9853031305</c:v>
+                  <c:v>5749.37473996972</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4144.48925796123</c:v>
+                  <c:v>9743.09345687085</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6074.40629285533</c:v>
+                  <c:v>16151.3108401427</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9398.57749434747</c:v>
+                  <c:v>23971.093033379</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>14265.4185652824</c:v>
+                  <c:v>30121.3899048595</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>19678.1708857706</c:v>
+                  <c:v>33491.9776109356</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>25199.9879329332</c:v>
+                  <c:v>36517.4184451495</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>28536.8638321231</c:v>
+                  <c:v>37570.9901598392</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>31480.4454483655</c:v>
+                  <c:v>39289.8279819907</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>32886.4054238486</c:v>
+                  <c:v>39902.7679794784</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>33631.7345901166</c:v>
+                  <c:v>40184.2549124965</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>35059.0209563876</c:v>
+                  <c:v>41498.1504024654</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>34418.4213877165</c:v>
+                  <c:v>40615.6771522779</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>34906.919803565</c:v>
+                  <c:v>41169.4170674661</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>34462.59255885</c:v>
+                  <c:v>40623.7248409949</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>34044.8606468587</c:v>
+                  <c:v>40170.4315616034</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>34336.7916153616</c:v>
+                  <c:v>40508.4245333545</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>34410.6057400286</c:v>
+                  <c:v>40559.9027254724</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>35617.4551879858</c:v>
+                  <c:v>41881.4649664055</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>35727.2369638573</c:v>
+                  <c:v>41924.0409752373</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>36244.1860775154</c:v>
+                  <c:v>42470.3298662419</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>37909.7790628716</c:v>
+                  <c:v>44333.2772822828</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>37696.2001294029</c:v>
+                  <c:v>44103.1640871934</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>38704.8019388919</c:v>
+                  <c:v>45377.4070155161</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>37968.5007278037</c:v>
+                  <c:v>44567.1582170616</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>37689.9619251072</c:v>
+                  <c:v>44252.0800739596</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>38190.2551991718</c:v>
+                  <c:v>44867.9415683212</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>37985.2718176647</c:v>
+                  <c:v>44622.3938825698</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>39852.4967476354</c:v>
+                  <c:v>46727.6906629501</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>39553.9815565169</c:v>
+                  <c:v>46268.5577621101</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>40570.0090586247</c:v>
+                  <c:v>47365.2407401908</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>41613.4200353257</c:v>
+                  <c:v>48481.0840603954</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>42202.3280389585</c:v>
+                  <c:v>49141.1387717507</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>42751.3920325504</c:v>
+                  <c:v>49854.9041779514</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>41307.7913282964</c:v>
+                  <c:v>48253.7470445086</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>41168.2649757108</c:v>
+                  <c:v>48174.78101041</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>41830.1900136664</c:v>
+                  <c:v>48957.7245557706</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>41574.5628489423</c:v>
+                  <c:v>48692.9686143668</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>42012.8838991747</c:v>
+                  <c:v>49188.9388089566</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>42585.7305437399</c:v>
+                  <c:v>49831.8303010424</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>43745.3343446713</c:v>
+                  <c:v>51136.7911327143</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>43320.6567226274</c:v>
+                  <c:v>50659.4252900473</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>44356.9852888853</c:v>
+                  <c:v>51943.1180558782</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>43688.2480650477</c:v>
+                  <c:v>51272.2966945847</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>44108.3663692157</c:v>
+                  <c:v>51813.9420405498</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>44496.1793279918</c:v>
+                  <c:v>52306.8338436368</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>44834.9596453379</c:v>
+                  <c:v>52641.7964038047</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>45689.0176231917</c:v>
+                  <c:v>53518.8297541172</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>47323.1143829889</c:v>
+                  <c:v>55334.2261366139</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>46056.0053263203</c:v>
+                  <c:v>53870.9637307227</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>45930.6878964993</c:v>
+                  <c:v>53818.0339986418</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>45128.5328120038</c:v>
+                  <c:v>52976.1945555012</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>45648.1531360755</c:v>
+                  <c:v>53576.5213108851</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>45325.0264207754</c:v>
+                  <c:v>53165.3503162126</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>46351.1458955961</c:v>
+                  <c:v>54223.9810704099</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>47373.0884914792</c:v>
+                  <c:v>55241.515267452</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>48597.022977855</c:v>
+                  <c:v>56516.945683517</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>47687.9804047967</c:v>
+                  <c:v>55470.5351692672</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>48095.4762940185</c:v>
+                  <c:v>55973.4160391706</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>46732.3335281626</c:v>
+                  <c:v>54445.7999327496</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>48146.2458736111</c:v>
+                  <c:v>56059.9478889287</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>46519.1279773301</c:v>
+                  <c:v>54094.3507906771</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -588,8 +413,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2075498008"/>
-        <c:axId val="-2073217240"/>
+        <c:axId val="-2102393592"/>
+        <c:axId val="-2060315816"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -821,11 +646,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2102351240"/>
-        <c:axId val="-2097050488"/>
+        <c:axId val="-2099991320"/>
+        <c:axId val="-2075477304"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2075498008"/>
+        <c:axId val="-2102393592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -834,7 +659,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2073217240"/>
+        <c:crossAx val="-2060315816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -842,7 +667,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2073217240"/>
+        <c:axId val="-2060315816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -853,12 +678,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2075498008"/>
+        <c:crossAx val="-2102393592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2097050488"/>
+        <c:axId val="-2075477304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -868,12 +693,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2102351240"/>
+        <c:crossAx val="-2099991320"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="2102351240"/>
+        <c:axId val="-2099991320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -882,7 +707,8 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2097050488"/>
+        <c:crossAx val="-2075477304"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -905,7 +731,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="127" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="203" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
@@ -1263,13 +1089,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E64"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D64"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="3" max="3" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1280,10 +1106,13 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1293,11 +1122,8 @@
       <c r="B2">
         <v>3695.6502197159498</v>
       </c>
-      <c r="C2">
-        <v>3150.2015538015698</v>
-      </c>
       <c r="D2">
-        <v>3150.1301505708798</v>
+        <v>4299.65938045024</v>
       </c>
       <c r="E2">
         <v>10.220000000000001</v>
@@ -1310,11 +1136,8 @@
       <c r="B3">
         <v>3695.6428820476299</v>
       </c>
-      <c r="C3">
-        <v>3064.5886335254499</v>
-      </c>
       <c r="D3">
-        <v>3059.9853031305001</v>
+        <v>5749.3747399697204</v>
       </c>
       <c r="E3">
         <v>10.220000000000001</v>
@@ -1327,11 +1150,8 @@
       <c r="B4">
         <v>3764.2930535667101</v>
       </c>
-      <c r="C4">
-        <v>4171.9119436661504</v>
-      </c>
       <c r="D4">
-        <v>4144.4892579612297</v>
+        <v>9743.0934568708508</v>
       </c>
       <c r="E4">
         <v>12.18</v>
@@ -1344,11 +1164,8 @@
       <c r="B5">
         <v>3718.5274940669701</v>
       </c>
-      <c r="C5">
-        <v>6171.9248865824702</v>
-      </c>
       <c r="D5">
-        <v>6074.4062928553303</v>
+        <v>16151.3108401427</v>
       </c>
       <c r="E5">
         <v>12.18</v>
@@ -1361,11 +1178,8 @@
       <c r="B6">
         <v>3791.3030429217401</v>
       </c>
-      <c r="C6">
-        <v>9664.2890192670202</v>
-      </c>
       <c r="D6">
-        <v>9398.5774943474698</v>
+        <v>23971.093033378998</v>
       </c>
       <c r="E6">
         <v>12.18</v>
@@ -1378,11 +1192,8 @@
       <c r="B7">
         <v>3803.7279989701101</v>
       </c>
-      <c r="C7">
-        <v>14806.1012782179</v>
-      </c>
       <c r="D7">
-        <v>14265.4185652824</v>
+        <v>30121.389904859501</v>
       </c>
       <c r="E7">
         <v>10.45</v>
@@ -1395,11 +1206,8 @@
       <c r="B8">
         <v>3791.6146375232702</v>
       </c>
-      <c r="C8">
-        <v>20467.401751101701</v>
-      </c>
       <c r="D8">
-        <v>19678.1708857706</v>
+        <v>33491.977610935603</v>
       </c>
       <c r="E8">
         <v>10.45</v>
@@ -1412,11 +1220,8 @@
       <c r="B9">
         <v>3884.2871346239299</v>
       </c>
-      <c r="C9">
-        <v>26179.732776792898</v>
-      </c>
       <c r="D9">
-        <v>25199.9879329332</v>
+        <v>36517.418445149502</v>
       </c>
       <c r="E9">
         <v>13.62</v>
@@ -1429,11 +1234,8 @@
       <c r="B10">
         <v>3849.7618097356599</v>
       </c>
-      <c r="C10">
-        <v>29590.4724066206</v>
-      </c>
       <c r="D10">
-        <v>28536.863832123101</v>
+        <v>37570.990159839203</v>
       </c>
       <c r="E10">
         <v>13.62</v>
@@ -1446,11 +1248,8 @@
       <c r="B11">
         <v>3919.1832500549899</v>
       </c>
-      <c r="C11">
-        <v>32564.9184302541</v>
-      </c>
       <c r="D11">
-        <v>31480.445448365499</v>
+        <v>39289.827981990697</v>
       </c>
       <c r="E11">
         <v>13.62</v>
@@ -1463,11 +1262,8 @@
       <c r="B12">
         <v>3907.4585794201998</v>
       </c>
-      <c r="C12">
-        <v>34032.454930458203</v>
-      </c>
       <c r="D12">
-        <v>32886.405423848599</v>
+        <v>39902.767979478398</v>
       </c>
       <c r="E12">
         <v>17.57</v>
@@ -1480,11 +1276,8 @@
       <c r="B13">
         <v>3884.41453742356</v>
       </c>
-      <c r="C13">
-        <v>34861.990490832999</v>
-      </c>
       <c r="D13">
-        <v>33631.734590116597</v>
+        <v>40184.254912496501</v>
       </c>
       <c r="E13">
         <v>17.57</v>
@@ -1497,11 +1290,8 @@
       <c r="B14">
         <v>3954.1591395518599</v>
       </c>
-      <c r="C14">
-        <v>36438.225850544499</v>
-      </c>
       <c r="D14">
-        <v>35059.020956387598</v>
+        <v>41498.150402465399</v>
       </c>
       <c r="E14">
         <v>21.74</v>
@@ -1514,11 +1304,8 @@
       <c r="B15">
         <v>3872.1536452806199</v>
       </c>
-      <c r="C15">
-        <v>35901.471231168704</v>
-      </c>
       <c r="D15">
-        <v>34418.421387716502</v>
+        <v>40615.677152277902</v>
       </c>
       <c r="E15">
         <v>21.74</v>
@@ -1531,11 +1318,8 @@
       <c r="B16">
         <v>3963.22088083463</v>
       </c>
-      <c r="C16">
-        <v>36503.937542527703</v>
-      </c>
       <c r="D16">
-        <v>34906.919803564997</v>
+        <v>41169.4170674661</v>
       </c>
       <c r="E16">
         <v>21.74</v>
@@ -1548,11 +1332,8 @@
       <c r="B17">
         <v>3929.1251371765002</v>
       </c>
-      <c r="C17">
-        <v>36133.632267240799</v>
-      </c>
       <c r="D17">
-        <v>34462.592558850003</v>
+        <v>40623.724840994902</v>
       </c>
       <c r="E17">
         <v>24.98</v>
@@ -1565,11 +1346,8 @@
       <c r="B18">
         <v>3916.1236125349801</v>
       </c>
-      <c r="C18">
-        <v>35792.929041401097</v>
-      </c>
       <c r="D18">
-        <v>34044.860646858702</v>
+        <v>40170.4315616034</v>
       </c>
       <c r="E18">
         <v>24.98</v>
@@ -1582,11 +1360,8 @@
       <c r="B19">
         <v>3963.0289480411702</v>
       </c>
-      <c r="C19">
-        <v>36143.993891790997</v>
-      </c>
       <c r="D19">
-        <v>34336.791615361602</v>
+        <v>40508.424533354497</v>
       </c>
       <c r="E19">
         <v>24.72</v>
@@ -1599,11 +1374,8 @@
       <c r="B20">
         <v>3963.24743631208</v>
       </c>
-      <c r="C20">
-        <v>36229.531559714502</v>
-      </c>
       <c r="D20">
-        <v>34410.605740028601</v>
+        <v>40559.902725472399</v>
       </c>
       <c r="E20">
         <v>24.72</v>
@@ -1616,11 +1388,8 @@
       <c r="B21">
         <v>4047.2770070778802</v>
       </c>
-      <c r="C21">
-        <v>37471.364797221198</v>
-      </c>
       <c r="D21">
-        <v>35617.455187985797</v>
+        <v>41881.464966405503</v>
       </c>
       <c r="E21">
         <v>24.72</v>
@@ -1633,11 +1402,8 @@
       <c r="B22">
         <v>4006.75720930535</v>
       </c>
-      <c r="C22">
-        <v>37587.806861617602</v>
-      </c>
       <c r="D22">
-        <v>35727.2369638573</v>
+        <v>41924.040975237302</v>
       </c>
       <c r="E22">
         <v>27.47</v>
@@ -1650,11 +1416,8 @@
       <c r="B23">
         <v>3995.21947058144</v>
       </c>
-      <c r="C23">
-        <v>38152.779406694899</v>
-      </c>
       <c r="D23">
-        <v>36244.186077515398</v>
+        <v>42470.329866241897</v>
       </c>
       <c r="E23">
         <v>27.47</v>
@@ -1667,11 +1430,8 @@
       <c r="B24">
         <v>4079.76170668431</v>
       </c>
-      <c r="C24">
-        <v>39942.193432547298</v>
-      </c>
       <c r="D24">
-        <v>37909.779062871603</v>
+        <v>44333.277282282797</v>
       </c>
       <c r="E24">
         <v>30.64</v>
@@ -1684,11 +1444,8 @@
       <c r="B25">
         <v>4007.0551953211798</v>
       </c>
-      <c r="C25">
-        <v>39782.524600520701</v>
-      </c>
       <c r="D25">
-        <v>37696.200129402903</v>
+        <v>44103.1640871934</v>
       </c>
       <c r="E25">
         <v>30.64</v>
@@ -1701,11 +1458,8 @@
       <c r="B26">
         <v>4120.1955557965002</v>
       </c>
-      <c r="C26">
-        <v>40902.600968105602</v>
-      </c>
       <c r="D26">
-        <v>38704.801938891898</v>
+        <v>45377.407015516103</v>
       </c>
       <c r="E26">
         <v>30.64</v>
@@ -1718,11 +1472,8 @@
       <c r="B27">
         <v>4078.9615909457498</v>
       </c>
-      <c r="C27">
-        <v>40066.631846777098</v>
-      </c>
       <c r="D27">
-        <v>37968.500727803701</v>
+        <v>44567.158217061602</v>
       </c>
       <c r="E27">
         <v>24.46</v>
@@ -1735,11 +1486,8 @@
       <c r="B28">
         <v>4068.6627906581998</v>
       </c>
-      <c r="C28">
-        <v>39641.8249045673</v>
-      </c>
       <c r="D28">
-        <v>37689.9619251072</v>
+        <v>44252.080073959602</v>
       </c>
       <c r="E28">
         <v>24.46</v>
@@ -1752,11 +1500,8 @@
       <c r="B29">
         <v>4136.9922270631196</v>
       </c>
-      <c r="C29">
-        <v>40096.867535684898</v>
-      </c>
       <c r="D29">
-        <v>38190.255199171799</v>
+        <v>44867.941568321199</v>
       </c>
       <c r="E29">
         <v>27.79</v>
@@ -1769,11 +1514,8 @@
       <c r="B30">
         <v>4103.7665953094902</v>
       </c>
-      <c r="C30">
-        <v>39838.112632612203</v>
-      </c>
       <c r="D30">
-        <v>37985.271817664703</v>
+        <v>44622.393882569799</v>
       </c>
       <c r="E30">
         <v>27.79</v>
@@ -1786,11 +1528,8 @@
       <c r="B31">
         <v>4246.1910278182804</v>
       </c>
-      <c r="C31">
-        <v>41726.790951247502</v>
-      </c>
       <c r="D31">
-        <v>39852.4967476354</v>
+        <v>46727.690662950103</v>
       </c>
       <c r="E31">
         <v>27.79</v>
@@ -1803,11 +1542,8 @@
       <c r="B32">
         <v>4132.1932765204301</v>
       </c>
-      <c r="C32">
-        <v>41362.699415620897</v>
-      </c>
       <c r="D32">
-        <v>39553.981556516897</v>
+        <v>46268.557762110097</v>
       </c>
       <c r="E32">
         <v>29.43</v>
@@ -1820,11 +1556,8 @@
       <c r="B33">
         <v>4158.0371881698202</v>
       </c>
-      <c r="C33">
-        <v>42393.344952689098</v>
-      </c>
       <c r="D33">
-        <v>40570.009058624702</v>
+        <v>47365.240740190799</v>
       </c>
       <c r="E33">
         <v>29.43</v>
@@ -1837,11 +1570,8 @@
       <c r="B34">
         <v>4182.9613472397496</v>
       </c>
-      <c r="C34">
-        <v>43419.806565353902</v>
-      </c>
       <c r="D34">
-        <v>41613.420035325697</v>
+        <v>48481.084060395398</v>
       </c>
       <c r="E34">
         <v>27.49</v>
@@ -1854,11 +1584,8 @@
       <c r="B35">
         <v>4199.71285572122</v>
       </c>
-      <c r="C35">
-        <v>43968.710780060101</v>
-      </c>
       <c r="D35">
-        <v>42202.328038958498</v>
+        <v>49141.138771750702</v>
       </c>
       <c r="E35">
         <v>27.49</v>
@@ -1871,11 +1598,8 @@
       <c r="B36">
         <v>4276.1589632368004</v>
       </c>
-      <c r="C36">
-        <v>44497.7503852925</v>
-      </c>
       <c r="D36">
-        <v>42751.3920325504</v>
+        <v>49854.904177951401</v>
       </c>
       <c r="E36">
         <v>27.49</v>
@@ -1888,11 +1612,8 @@
       <c r="B37">
         <v>4170.4648811432398</v>
       </c>
-      <c r="C37">
-        <v>42947.4756750667</v>
-      </c>
       <c r="D37">
-        <v>41307.7913282964</v>
+        <v>48253.7470445086</v>
       </c>
       <c r="E37">
         <v>27.09</v>
@@ -1905,11 +1626,8 @@
       <c r="B38">
         <v>4201.7104379862903</v>
       </c>
-      <c r="C38">
-        <v>42747.714393069298</v>
-      </c>
       <c r="D38">
-        <v>41168.264975710801</v>
+        <v>48174.781010409999</v>
       </c>
       <c r="E38">
         <v>27.09</v>
@@ -1922,11 +1640,8 @@
       <c r="B39">
         <v>4265.1521730136401</v>
       </c>
-      <c r="C39">
-        <v>43418.936717624398</v>
-      </c>
       <c r="D39">
-        <v>41830.190013666397</v>
+        <v>48957.724555770597</v>
       </c>
       <c r="E39">
         <v>32.04</v>
@@ -1939,11 +1654,8 @@
       <c r="B40">
         <v>4228.3925321644001</v>
       </c>
-      <c r="C40">
-        <v>43175.954722630398</v>
-      </c>
       <c r="D40">
-        <v>41574.562848942303</v>
+        <v>48692.9686143668</v>
       </c>
       <c r="E40">
         <v>32.04</v>
@@ -1956,11 +1668,8 @@
       <c r="B41">
         <v>4231.7635233915398</v>
       </c>
-      <c r="C41">
-        <v>43659.452868629298</v>
-      </c>
       <c r="D41">
-        <v>42012.883899174703</v>
+        <v>49188.938808956598</v>
       </c>
       <c r="E41">
         <v>35.29</v>
@@ -1973,11 +1682,8 @@
       <c r="B42">
         <v>4231.99160954937</v>
       </c>
-      <c r="C42">
-        <v>44291.173951544799</v>
-      </c>
       <c r="D42">
-        <v>42585.730543739897</v>
+        <v>49831.830301042399</v>
       </c>
       <c r="E42">
         <v>35.29</v>
@@ -1990,11 +1696,8 @@
       <c r="B43">
         <v>4279.5788135886496</v>
       </c>
-      <c r="C43">
-        <v>45511.176245116301</v>
-      </c>
       <c r="D43">
-        <v>43745.334344671297</v>
+        <v>51136.791132714301</v>
       </c>
       <c r="E43">
         <v>35.57</v>
@@ -2007,11 +1710,8 @@
       <c r="B44">
         <v>4207.3220997051903</v>
       </c>
-      <c r="C44">
-        <v>45080.973453948798</v>
-      </c>
       <c r="D44">
-        <v>43320.656722627398</v>
+        <v>50659.4252900473</v>
       </c>
       <c r="E44">
         <v>35.57</v>
@@ -2024,11 +1724,8 @@
       <c r="B45">
         <v>4317.7531286801895</v>
       </c>
-      <c r="C45">
-        <v>46136.820582940498</v>
-      </c>
       <c r="D45">
-        <v>44356.985288885298</v>
+        <v>51943.1180558782</v>
       </c>
       <c r="E45">
         <v>33.21</v>
@@ -2041,11 +1738,8 @@
       <c r="B46">
         <v>4303.1554305891104</v>
       </c>
-      <c r="C46">
-        <v>45393.959249673797</v>
-      </c>
       <c r="D46">
-        <v>43688.248065047701</v>
+        <v>51272.2966945847</v>
       </c>
       <c r="E46">
         <v>33.21</v>
@@ -2058,11 +1752,8 @@
       <c r="B47">
         <v>4365.7990684558499</v>
       </c>
-      <c r="C47">
-        <v>45782.519121183701</v>
-      </c>
       <c r="D47">
-        <v>44108.366369215699</v>
+        <v>51813.942040549802</v>
       </c>
       <c r="E47">
         <v>35.28</v>
@@ -2075,11 +1766,8 @@
       <c r="B48">
         <v>4410.9457501950901</v>
       </c>
-      <c r="C48">
-        <v>46144.650709908601</v>
-      </c>
       <c r="D48">
-        <v>44496.179327991798</v>
+        <v>52306.833843636799</v>
       </c>
       <c r="E48">
         <v>35.28</v>
@@ -2092,11 +1780,8 @@
       <c r="B49">
         <v>4403.8037999703602</v>
       </c>
-      <c r="C49">
-        <v>46431.171724563399</v>
-      </c>
       <c r="D49">
-        <v>44834.959645337898</v>
+        <v>52641.796403804699</v>
       </c>
       <c r="E49">
         <v>35.32</v>
@@ -2109,11 +1794,8 @@
       <c r="B50">
         <v>4407.2792950275798</v>
       </c>
-      <c r="C50">
-        <v>47240.146019164698</v>
-      </c>
       <c r="D50">
-        <v>45689.017623191699</v>
+        <v>53518.8297541172</v>
       </c>
       <c r="E50">
         <v>35.32</v>
@@ -2126,11 +1808,8 @@
       <c r="B51">
         <v>4477.8152971084801</v>
       </c>
-      <c r="C51">
-        <v>48893.096438270499</v>
-      </c>
       <c r="D51">
-        <v>47323.114382988897</v>
+        <v>55334.226136613899</v>
       </c>
       <c r="E51">
         <v>38.44</v>
@@ -2143,11 +1822,8 @@
       <c r="B52">
         <v>4322.9243042320804</v>
       </c>
-      <c r="C52">
-        <v>47588.8221989304</v>
-      </c>
       <c r="D52">
-        <v>46056.005326320301</v>
+        <v>53870.963730722702</v>
       </c>
       <c r="E52">
         <v>38.44</v>
@@ -2160,11 +1836,8 @@
       <c r="B53">
         <v>4328.3948525451497</v>
       </c>
-      <c r="C53">
-        <v>47440.927771298899</v>
-      </c>
       <c r="D53">
-        <v>45930.687896499301</v>
+        <v>53818.033998641797</v>
       </c>
       <c r="E53">
         <v>36.6</v>
@@ -2177,11 +1850,8 @@
       <c r="B54">
         <v>4292.50423902698</v>
       </c>
-      <c r="C54">
-        <v>46566.029613795901</v>
-      </c>
       <c r="D54">
-        <v>45128.532812003803</v>
+        <v>52976.194555501199</v>
       </c>
       <c r="E54">
         <v>36.6</v>
@@ -2194,11 +1864,8 @@
       <c r="B55">
         <v>4331.88865992515</v>
       </c>
-      <c r="C55">
-        <v>47035.4252672242</v>
-      </c>
       <c r="D55">
-        <v>45648.153136075503</v>
+        <v>53576.521310885102</v>
       </c>
       <c r="E55">
         <v>37.11</v>
@@ -2211,11 +1878,8 @@
       <c r="B56">
         <v>4274.5698440360502</v>
       </c>
-      <c r="C56">
-        <v>46638.978697965598</v>
-      </c>
       <c r="D56">
-        <v>45325.026420775401</v>
+        <v>53165.3503162126</v>
       </c>
       <c r="E56">
         <v>37.11</v>
@@ -2228,11 +1892,8 @@
       <c r="B57">
         <v>4293.4608983921298</v>
       </c>
-      <c r="C57">
-        <v>47605.008299631401</v>
-      </c>
       <c r="D57">
-        <v>46351.145895596099</v>
+        <v>54223.9810704099</v>
       </c>
       <c r="E57">
         <v>35.74</v>
@@ -2245,11 +1906,8 @@
       <c r="B58">
         <v>4282.0299583505603</v>
       </c>
-      <c r="C58">
-        <v>48561.647852380003</v>
-      </c>
       <c r="D58">
-        <v>47373.088491479197</v>
+        <v>55241.515267452</v>
       </c>
       <c r="E58">
         <v>35.74</v>
@@ -2262,11 +1920,8 @@
       <c r="B59">
         <v>4284.1653257717899</v>
       </c>
-      <c r="C59">
-        <v>49765.458830108597</v>
-      </c>
       <c r="D59">
-        <v>48597.022977854998</v>
+        <v>56516.945683516999</v>
       </c>
       <c r="E59">
         <v>38.770000000000003</v>
@@ -2279,11 +1934,8 @@
       <c r="B60">
         <v>4160.1028417097696</v>
       </c>
-      <c r="C60">
-        <v>48832.908324149597</v>
-      </c>
       <c r="D60">
-        <v>47687.980404796697</v>
+        <v>55470.535169267197</v>
       </c>
       <c r="E60">
         <v>38.770000000000003</v>
@@ -2296,11 +1948,8 @@
       <c r="B61">
         <v>4182.3610511025199</v>
       </c>
-      <c r="C61">
-        <v>49215.210612336101</v>
-      </c>
       <c r="D61">
-        <v>48095.476294018503</v>
+        <v>55973.416039170603</v>
       </c>
       <c r="E61">
         <v>36.25</v>
@@ -2313,11 +1962,8 @@
       <c r="B62">
         <v>4075.4494186274101</v>
       </c>
-      <c r="C62">
-        <v>47768.236846884</v>
-      </c>
       <c r="D62">
-        <v>46732.333528162599</v>
+        <v>54445.7999327496</v>
       </c>
       <c r="E62">
         <v>36.25</v>
@@ -2330,11 +1976,8 @@
       <c r="B63">
         <v>4182.7473627256204</v>
       </c>
-      <c r="C63">
-        <v>49125.352967836297</v>
-      </c>
       <c r="D63">
-        <v>48146.2458736111</v>
+        <v>56059.947888928698</v>
       </c>
       <c r="E63">
         <v>33.35</v>
@@ -2347,11 +1990,8 @@
       <c r="B64">
         <v>4010.3508582760201</v>
       </c>
-      <c r="C64">
-        <v>47368.616174009701</v>
-      </c>
       <c r="D64">
-        <v>46519.127977330099</v>
+        <v>54094.350790677097</v>
       </c>
       <c r="E64">
         <v>33.35</v>
